--- a/excel_file_formats/Recharge data_AA (copy).xlsx
+++ b/excel_file_formats/Recharge data_AA (copy).xlsx
@@ -67,13 +67,13 @@
     <t xml:space="preserve">Assessment Unit</t>
   </si>
   <si>
+    <t xml:space="preserve">Type of Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of Fillings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infiltration Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of Fillings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of Structure</t>
   </si>
   <si>
     <t xml:space="preserve">Storage Capacity [ha-m]</t>
@@ -571,7 +571,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,18 +684,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -732,16 +720,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -853,24 +833,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,7 +1032,6 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1097,13 +1077,13 @@
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1118,9 +1098,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1131,9 +1111,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1203,6 +1183,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A8:A10"/>
@@ -1236,19 +1217,23 @@
   <dimension ref="1:20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20" t="n">
@@ -1651,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20" t="n">
@@ -1697,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20" t="n">
@@ -1755,17 +1740,21 @@
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="20" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,251 +2254,251 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="20.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="28" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="28" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="28" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="28" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="28" width="11.8163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="28" width="17.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="28" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="n">
+      <c r="A13" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="n">
+      <c r="A14" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="n">
+      <c r="A15" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="0" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="0" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2552,14 +2541,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,140 +2657,140 @@
       <c r="L6" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="n">
+      <c r="A13" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="39" t="n">
+      <c r="H13" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="I13" s="39" t="n">
+      <c r="I13" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="n">
+      <c r="A14" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="39" t="n">
+      <c r="H14" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="I14" s="39" t="n">
+      <c r="I14" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="0" t="s">
@@ -2846,125 +2837,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="28" width="27.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="37.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="15.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="28" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-    </row>
-    <row r="7" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
@@ -2979,352 +2954,352 @@
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="AMJ7" s="28"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="n">
+      <c r="A13" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="44" t="n">
+      <c r="G13" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="44" t="n">
+      <c r="H13" s="30"/>
+      <c r="I13" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="J13" s="44" t="n">
+      <c r="J13" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="K13" s="44" t="n">
+      <c r="K13" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="L13" s="44" t="n">
+      <c r="L13" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="M13" s="44" t="n">
+      <c r="M13" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="N13" s="44" t="n">
+      <c r="N13" s="39" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="n">
+      <c r="A14" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="44" t="n">
+      <c r="G14" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="44" t="n">
+      <c r="H14" s="30"/>
+      <c r="I14" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="J14" s="44" t="n">
+      <c r="J14" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="K14" s="44" t="n">
+      <c r="K14" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="L14" s="44" t="n">
+      <c r="L14" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="M14" s="44" t="n">
+      <c r="M14" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="N14" s="44" t="n">
+      <c r="N14" s="39" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="n">
+      <c r="A15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="44" t="n">
+      <c r="G15" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="44" t="n">
+      <c r="H15" s="30"/>
+      <c r="I15" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="J15" s="44" t="n">
+      <c r="J15" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="K15" s="44" t="n">
+      <c r="K15" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="L15" s="44" t="n">
+      <c r="L15" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="M15" s="44" t="n">
+      <c r="M15" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="N15" s="44" t="n">
+      <c r="N15" s="39" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="44" t="n">
+      <c r="A16" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="44" t="n">
+      <c r="G16" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="44" t="n">
+      <c r="H16" s="30"/>
+      <c r="I16" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="J16" s="44" t="n">
+      <c r="J16" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="K16" s="44" t="n">
+      <c r="K16" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="L16" s="44" t="n">
+      <c r="L16" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="M16" s="44" t="n">
+      <c r="M16" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="N16" s="44" t="n">
+      <c r="N16" s="39" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="n">
+      <c r="A17" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="44" t="n">
+      <c r="G17" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="44" t="n">
+      <c r="H17" s="30"/>
+      <c r="I17" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="J17" s="44" t="n">
+      <c r="J17" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="K17" s="44" t="n">
+      <c r="K17" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="L17" s="44" t="n">
+      <c r="L17" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="M17" s="44" t="n">
+      <c r="M17" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="N17" s="44" t="n">
+      <c r="N17" s="39" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="0" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="0" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="40" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3363,22 +3338,24 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.7704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.8163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8163265306122"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,156 +3487,156 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48" t="s">
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48" t="s">
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48" t="s">
+      <c r="I9" s="43"/>
+      <c r="J9" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48" t="s">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="43"/>
+      <c r="N9" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48" t="s">
+      <c r="O9" s="43"/>
+      <c r="P9" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="48"/>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="48" t="s">
+      <c r="N10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="48" t="s">
+      <c r="O10" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="48" t="s">
+      <c r="Q10" s="43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="n">
+      <c r="A12" s="45" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -3674,45 +3651,45 @@
       <c r="E12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="49" t="n">
+      <c r="F12" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="49" t="n">
+      <c r="G12" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="49" t="n">
+      <c r="H12" s="44" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="49" t="n">
+      <c r="I12" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="J12" s="49" t="n">
+      <c r="J12" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="49" t="n">
+      <c r="K12" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="L12" s="49" t="n">
+      <c r="L12" s="44" t="n">
         <v>7</v>
       </c>
-      <c r="M12" s="49" t="n">
+      <c r="M12" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="N12" s="49" t="n">
+      <c r="N12" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="O12" s="49" t="n">
+      <c r="O12" s="44" t="n">
         <v>10</v>
       </c>
-      <c r="P12" s="49" t="n">
+      <c r="P12" s="44" t="n">
         <v>11</v>
       </c>
-      <c r="Q12" s="49" t="n">
+      <c r="Q12" s="44" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="n">
+      <c r="A13" s="45" t="n">
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3727,40 +3704,40 @@
       <c r="E13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="49" t="n">
+      <c r="F13" s="44" t="n">
         <v>100</v>
       </c>
-      <c r="G13" s="49" t="n">
+      <c r="G13" s="44" t="n">
         <v>101</v>
       </c>
-      <c r="H13" s="49" t="n">
+      <c r="H13" s="44" t="n">
         <v>102</v>
       </c>
-      <c r="I13" s="49" t="n">
+      <c r="I13" s="44" t="n">
         <v>103</v>
       </c>
-      <c r="J13" s="49" t="n">
+      <c r="J13" s="44" t="n">
         <v>104</v>
       </c>
-      <c r="K13" s="49" t="n">
+      <c r="K13" s="44" t="n">
         <v>105</v>
       </c>
-      <c r="L13" s="49" t="n">
+      <c r="L13" s="44" t="n">
         <v>106</v>
       </c>
-      <c r="M13" s="49" t="n">
+      <c r="M13" s="44" t="n">
         <v>107</v>
       </c>
-      <c r="N13" s="49" t="n">
+      <c r="N13" s="44" t="n">
         <v>108</v>
       </c>
-      <c r="O13" s="49" t="n">
+      <c r="O13" s="44" t="n">
         <v>109</v>
       </c>
-      <c r="P13" s="49" t="n">
+      <c r="P13" s="44" t="n">
         <v>110</v>
       </c>
-      <c r="Q13" s="49" t="n">
+      <c r="Q13" s="44" t="n">
         <v>111</v>
       </c>
     </row>
